--- a/ArdsNorthDownNewCarDealers.xlsx
+++ b/ArdsNorthDownNewCarDealers.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Locations" sheetId="1" r:id="rId1"/>
+    <sheet name="Opening Hours" sheetId="2" r:id="rId2"/>
+    <sheet name="Contact Details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="106">
   <si>
     <t>Dealer</t>
   </si>
@@ -235,13 +236,121 @@
   </si>
   <si>
     <t>9.00am-1.00pm</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>028 9051 3757</t>
+  </si>
+  <si>
+    <t>028 9127 0444</t>
+  </si>
+  <si>
+    <t>028 9127 2701</t>
+  </si>
+  <si>
+    <t>info@philippetersen.co.uk</t>
+  </si>
+  <si>
+    <t>South Circular Business Park, Bangor</t>
+  </si>
+  <si>
+    <t>BT19 7AG</t>
+  </si>
+  <si>
+    <t>40 Bingham Street, Bangor</t>
+  </si>
+  <si>
+    <t>BT20 5DN</t>
+  </si>
+  <si>
+    <t>402 Belfast Rd, Bangor</t>
+  </si>
+  <si>
+    <t>BT19 1UE</t>
+  </si>
+  <si>
+    <t>Unit 8 Enterprise Road</t>
+  </si>
+  <si>
+    <t>BT19 7TA</t>
+  </si>
+  <si>
+    <t>028 9145 5995</t>
+  </si>
+  <si>
+    <t>info@northdownmotors.co.uk</t>
+  </si>
+  <si>
+    <t>028 9123 3279</t>
+  </si>
+  <si>
+    <t>Bangor-Ards Dual Carriageway, 3 Green Road, Newtownards</t>
+  </si>
+  <si>
+    <t>Newtownards</t>
+  </si>
+  <si>
+    <t>BT23 7PZ</t>
+  </si>
+  <si>
+    <t>10 Comber Road, Newtownards</t>
+  </si>
+  <si>
+    <t>BT23 4QP</t>
+  </si>
+  <si>
+    <t>0844 230 8585</t>
+  </si>
+  <si>
+    <t>028 9160 8510</t>
+  </si>
+  <si>
+    <t>43 Portaferry Road, Newtownards</t>
+  </si>
+  <si>
+    <t>BT23 8NN</t>
+  </si>
+  <si>
+    <t>028 9181 2525</t>
+  </si>
+  <si>
+    <t>39 Portaferry Road, Newtownards</t>
+  </si>
+  <si>
+    <t>BT23 8NN </t>
+  </si>
+  <si>
+    <t>0844 211 4693</t>
+  </si>
+  <si>
+    <t>788 Upper Newtownards Road, Quarry Corner, Dundonald</t>
+  </si>
+  <si>
+    <t>BT16 1UD</t>
+  </si>
+  <si>
+    <t>0844 222 3208</t>
+  </si>
+  <si>
+    <t>0844 264 1120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +365,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -279,9 +406,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1088,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1342,7 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1363,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,4 +1819,205 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="mailto:info@philippetersen.co.uk"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>